--- a/biology/Zoologie/Philip_Pearsall_Carpenter/Philip_Pearsall_Carpenter.xlsx
+++ b/biology/Zoologie/Philip_Pearsall_Carpenter/Philip_Pearsall_Carpenter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Philip Pearsall Carpenter est un homme d’église et un malacologiste britannique, né le 4 novembre 1819 à Bristol et mort le 24 mai 1877 à Montréal d’une fièvre typhoïde.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils du pasteur Lant Carpenter, le frère du naturaliste William Benjamin Carpenter (1813-1885) et de la réformatrice Mary Carpenter (1807-1877). Il est ordonné prêtre de l’église presbytérienne en 1841. Il est nommé à Stand et à Warrington et, après un premier séjour au Canada, s’installe à Montréal en 1865 où il ouvre une école et une imprimerie. Il se marie avec Nina Meyer en 1860 et adopte un orphelin américain. La même année, il reçoit un doctorat à New York.
 Il consacre une grande partie de son temps à la malacologie. Il étudie notamment les collections rassemblées par Frederick Reigen à Mazatlan (Mexique). Il est fortement influencé par son frère mais aussi par l’un de ses professeurs de Bristol, Samuel Stutchbury (1798-1859), géologue et biologiste. Il noue des contacts avec de nombreux naturalistes comme George Brettingham Sowerby I (1788-1854), Ezekiel Jewett (1791-1876), Augustus Addison Gould (1805-1866), Louis Agassiz (1807-1873), Charles Baker Adams (1814-1853), Thomas B. Bland (1809-1885), John McCrady (1831-1881)...
@@ -543,7 +557,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1859 : On the relative value of human life in different parts of Canada.
 1856 : avec Augustus Addison Gould (1805-1866), Descriptions of shells from the Gulf of California and the Pacific coasts of Mexico and California. Part II. Proceedings of the Zoological Society of London, 24 : 198-208.
@@ -580,7 +596,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Illinois Natural History Survey
 (fr) Dictionnaire des malacologues célèbres</t>
